--- a/sin/sin2.xlsx
+++ b/sin/sin2.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sin2.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -18,9 +18,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -31,6 +40,24 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -54,14 +81,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -390,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:IX8"/>
+  <dimension ref="B1:IX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:IX8"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AZ10" activeCellId="1" sqref="B9:AZ9 B10:AZ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7091,9 +7130,370 @@
         <v>49</v>
       </c>
     </row>
+    <row r="9" spans="2:258">
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>7.2</v>
+      </c>
+      <c r="D9">
+        <v>14.4</v>
+      </c>
+      <c r="E9">
+        <v>21.6</v>
+      </c>
+      <c r="F9">
+        <v>28.8</v>
+      </c>
+      <c r="G9">
+        <v>36</v>
+      </c>
+      <c r="H9">
+        <v>43.2</v>
+      </c>
+      <c r="I9">
+        <v>50.4</v>
+      </c>
+      <c r="J9">
+        <v>57.6</v>
+      </c>
+      <c r="K9">
+        <v>64.8</v>
+      </c>
+      <c r="L9">
+        <v>72</v>
+      </c>
+      <c r="M9">
+        <v>79.2</v>
+      </c>
+      <c r="N9">
+        <v>86.4</v>
+      </c>
+      <c r="O9">
+        <v>93.600000000000009</v>
+      </c>
+      <c r="P9">
+        <v>100.8</v>
+      </c>
+      <c r="Q9">
+        <v>108</v>
+      </c>
+      <c r="R9">
+        <v>115.2</v>
+      </c>
+      <c r="S9">
+        <v>122.4</v>
+      </c>
+      <c r="T9">
+        <v>129.6</v>
+      </c>
+      <c r="U9">
+        <v>136.80000000000001</v>
+      </c>
+      <c r="V9">
+        <v>144</v>
+      </c>
+      <c r="W9">
+        <v>151.20000000000002</v>
+      </c>
+      <c r="X9">
+        <v>158.4</v>
+      </c>
+      <c r="Y9">
+        <v>165.6</v>
+      </c>
+      <c r="Z9">
+        <v>172.8</v>
+      </c>
+      <c r="AA9">
+        <v>180</v>
+      </c>
+      <c r="AB9">
+        <v>187.20000000000002</v>
+      </c>
+      <c r="AC9">
+        <v>194.4</v>
+      </c>
+      <c r="AD9">
+        <v>201.6</v>
+      </c>
+      <c r="AE9">
+        <v>208.8</v>
+      </c>
+      <c r="AF9">
+        <v>216</v>
+      </c>
+      <c r="AG9">
+        <v>223.20000000000002</v>
+      </c>
+      <c r="AH9">
+        <v>230.4</v>
+      </c>
+      <c r="AI9">
+        <v>237.6</v>
+      </c>
+      <c r="AJ9">
+        <v>244.8</v>
+      </c>
+      <c r="AK9">
+        <v>252</v>
+      </c>
+      <c r="AL9">
+        <v>259.2</v>
+      </c>
+      <c r="AM9">
+        <v>266.40000000000003</v>
+      </c>
+      <c r="AN9">
+        <v>273.60000000000002</v>
+      </c>
+      <c r="AO9">
+        <v>280.8</v>
+      </c>
+      <c r="AP9">
+        <v>288</v>
+      </c>
+      <c r="AQ9">
+        <v>295.2</v>
+      </c>
+      <c r="AR9">
+        <v>302.40000000000003</v>
+      </c>
+      <c r="AS9">
+        <v>309.60000000000002</v>
+      </c>
+      <c r="AT9">
+        <v>316.8</v>
+      </c>
+      <c r="AU9">
+        <v>324</v>
+      </c>
+      <c r="AV9">
+        <v>331.2</v>
+      </c>
+      <c r="AW9">
+        <v>338.40000000000003</v>
+      </c>
+      <c r="AX9">
+        <v>345.6</v>
+      </c>
+      <c r="AY9">
+        <v>352.8</v>
+      </c>
+      <c r="AZ9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="2:258">
+      <c r="B10">
+        <f>SIN(RADIANS(B9))</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:AZ10" si="244">SIN(RADIANS(C9))</f>
+        <v>0.12533323356430426</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="244"/>
+        <v>0.24868988716485479</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="244"/>
+        <v>0.36812455268467797</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="244"/>
+        <v>0.48175367410171532</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="244"/>
+        <v>0.58778525229247314</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="244"/>
+        <v>0.68454710592868873</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="244"/>
+        <v>0.77051324277578925</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="244"/>
+        <v>0.84432792550201508</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="244"/>
+        <v>0.90482705246601958</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="244"/>
+        <v>0.95105651629515353</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="244"/>
+        <v>0.98228725072868872</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="244"/>
+        <v>0.99802672842827156</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="244"/>
+        <v>0.99802672842827156</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="244"/>
+        <v>0.98228725072868872</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="244"/>
+        <v>0.95105651629515364</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="244"/>
+        <v>0.90482705246601947</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="244"/>
+        <v>0.84432792550201496</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="244"/>
+        <v>0.77051324277578925</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="244"/>
+        <v>0.6845471059286885</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="244"/>
+        <v>0.58778525229247325</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="244"/>
+        <v>0.48175367410171521</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="244"/>
+        <v>0.36812455268467775</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="244"/>
+        <v>0.24868988716485482</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="244"/>
+        <v>0.12533323356430409</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="244"/>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="244"/>
+        <v>-0.12533323356430429</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="244"/>
+        <v>-0.24868988716485502</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="244"/>
+        <v>-0.36812455268467792</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="244"/>
+        <v>-0.48175367410171538</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="244"/>
+        <v>-0.58778525229247303</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="244"/>
+        <v>-0.68454710592868873</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="244"/>
+        <v>-0.77051324277578936</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="244"/>
+        <v>-0.84432792550201485</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="244"/>
+        <v>-0.9048270524660198</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="244"/>
+        <v>-0.95105651629515353</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="244"/>
+        <v>-0.98228725072868872</v>
+      </c>
+      <c r="AM10">
+        <f t="shared" si="244"/>
+        <v>-0.99802672842827156</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" si="244"/>
+        <v>-0.99802672842827156</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="244"/>
+        <v>-0.98228725072868861</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="244"/>
+        <v>-0.95105651629515364</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="244"/>
+        <v>-0.90482705246601958</v>
+      </c>
+      <c r="AR10">
+        <f t="shared" si="244"/>
+        <v>-0.84432792550201496</v>
+      </c>
+      <c r="AS10">
+        <f t="shared" si="244"/>
+        <v>-0.77051324277578903</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="244"/>
+        <v>-0.68454710592868828</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" si="244"/>
+        <v>-0.58778525229247336</v>
+      </c>
+      <c r="AV10">
+        <f t="shared" si="244"/>
+        <v>-0.48175367410171532</v>
+      </c>
+      <c r="AW10">
+        <f t="shared" si="244"/>
+        <v>-0.36812455268467786</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="244"/>
+        <v>-0.24868988716485449</v>
+      </c>
+      <c r="AY10">
+        <f t="shared" si="244"/>
+        <v>-0.12533323356430379</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/sin/sin2.xlsx
+++ b/sin/sin2.xlsx
@@ -16,15 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:IX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AZ10" activeCellId="1" sqref="B9:AZ9 B10:AZ10"/>
+    <sheetView tabSelected="1" topLeftCell="FE2" workbookViewId="0">
+      <selection activeCell="IW5" activeCellId="1" sqref="B4:IW4 B5:IW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -7486,8 +7477,9 @@
         <f t="shared" si="244"/>
         <v>-0.12533323356430379</v>
       </c>
-      <c r="AZ10" t="s">
-        <v>0</v>
+      <c r="AZ10">
+        <f t="shared" si="244"/>
+        <v>-2.45029690981724E-16</v>
       </c>
     </row>
   </sheetData>
